--- a/result/problem_1/erf/result_11.xlsx
+++ b/result/problem_1/erf/result_11.xlsx
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>720</v>
+        <v>290</v>
       </c>
       <c r="E2" t="n">
         <v>1350</v>
@@ -496,10 +496,10 @@
         <v>11372754</v>
       </c>
       <c r="C3" t="n">
-        <v>145</v>
+        <v>290</v>
       </c>
       <c r="D3" t="n">
-        <v>865</v>
+        <v>580</v>
       </c>
       <c r="E3" t="n">
         <v>1350</v>
@@ -565,16 +565,16 @@
         <v>11374801</v>
       </c>
       <c r="C6" t="n">
-        <v>2570</v>
+        <v>3050</v>
       </c>
       <c r="D6" t="n">
-        <v>4055</v>
+        <v>3340</v>
       </c>
       <c r="E6" t="n">
         <v>3150</v>
       </c>
       <c r="F6" t="n">
-        <v>905</v>
+        <v>190</v>
       </c>
       <c r="G6" t="n">
         <v>290</v>
@@ -591,13 +591,13 @@
         <v>2090</v>
       </c>
       <c r="D7" t="n">
-        <v>5130</v>
+        <v>2570</v>
       </c>
       <c r="E7" t="n">
         <v>3150</v>
       </c>
       <c r="F7" t="n">
-        <v>1980</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>480</v>
@@ -611,16 +611,16 @@
         <v>11375032</v>
       </c>
       <c r="C8" t="n">
-        <v>2210</v>
+        <v>2570</v>
       </c>
       <c r="D8" t="n">
-        <v>5250</v>
+        <v>3050</v>
       </c>
       <c r="E8" t="n">
         <v>3150</v>
       </c>
       <c r="F8" t="n">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>480</v>
@@ -634,16 +634,16 @@
         <v>11376181</v>
       </c>
       <c r="C9" t="n">
-        <v>2715</v>
+        <v>3340</v>
       </c>
       <c r="D9" t="n">
-        <v>4200</v>
+        <v>3630</v>
       </c>
       <c r="E9" t="n">
         <v>3150</v>
       </c>
       <c r="F9" t="n">
-        <v>1050</v>
+        <v>480</v>
       </c>
       <c r="G9" t="n">
         <v>290</v>
@@ -660,7 +660,7 @@
         <v>11920</v>
       </c>
       <c r="D10" t="n">
-        <v>13435</v>
+        <v>12210</v>
       </c>
       <c r="E10" t="n">
         <v>15750</v>
@@ -680,10 +680,10 @@
         <v>11377156</v>
       </c>
       <c r="C11" t="n">
-        <v>12065</v>
+        <v>12210</v>
       </c>
       <c r="D11" t="n">
-        <v>13580</v>
+        <v>12500</v>
       </c>
       <c r="E11" t="n">
         <v>15750</v>
@@ -706,7 +706,7 @@
         <v>8510</v>
       </c>
       <c r="D12" t="n">
-        <v>10435</v>
+        <v>8800</v>
       </c>
       <c r="E12" t="n">
         <v>13500</v>
@@ -729,7 +729,7 @@
         <v>1240</v>
       </c>
       <c r="D13" t="n">
-        <v>1810</v>
+        <v>1530</v>
       </c>
       <c r="E13" t="n">
         <v>2250</v>
@@ -749,10 +749,10 @@
         <v>11380033</v>
       </c>
       <c r="C14" t="n">
-        <v>1385</v>
+        <v>1530</v>
       </c>
       <c r="D14" t="n">
-        <v>1955</v>
+        <v>1820</v>
       </c>
       <c r="E14" t="n">
         <v>2250</v>
@@ -772,16 +772,16 @@
         <v>11415642</v>
       </c>
       <c r="C15" t="n">
-        <v>2860</v>
+        <v>3630</v>
       </c>
       <c r="D15" t="n">
-        <v>4335</v>
+        <v>3900</v>
       </c>
       <c r="E15" t="n">
         <v>3150</v>
       </c>
       <c r="F15" t="n">
-        <v>1185</v>
+        <v>750</v>
       </c>
       <c r="G15" t="n">
         <v>270</v>
@@ -818,10 +818,10 @@
         <v>11426349</v>
       </c>
       <c r="C17" t="n">
-        <v>8655</v>
+        <v>8800</v>
       </c>
       <c r="D17" t="n">
-        <v>10570</v>
+        <v>9070</v>
       </c>
       <c r="E17" t="n">
         <v>13500</v>
@@ -844,7 +844,7 @@
         <v>5990</v>
       </c>
       <c r="D18" t="n">
-        <v>7340</v>
+        <v>6260</v>
       </c>
       <c r="E18" t="n">
         <v>11250</v>
@@ -864,10 +864,10 @@
         <v>11427346</v>
       </c>
       <c r="C19" t="n">
-        <v>8790</v>
+        <v>9070</v>
       </c>
       <c r="D19" t="n">
-        <v>10705</v>
+        <v>9340</v>
       </c>
       <c r="E19" t="n">
         <v>13500</v>
@@ -887,10 +887,10 @@
         <v>11431002</v>
       </c>
       <c r="C20" t="n">
-        <v>12210</v>
+        <v>12500</v>
       </c>
       <c r="D20" t="n">
-        <v>13715</v>
+        <v>12770</v>
       </c>
       <c r="E20" t="n">
         <v>15750</v>
@@ -910,10 +910,10 @@
         <v>11431564</v>
       </c>
       <c r="C21" t="n">
-        <v>8925</v>
+        <v>9340</v>
       </c>
       <c r="D21" t="n">
-        <v>10840</v>
+        <v>9610</v>
       </c>
       <c r="E21" t="n">
         <v>13500</v>
@@ -933,10 +933,10 @@
         <v>11431568</v>
       </c>
       <c r="C22" t="n">
-        <v>9060</v>
+        <v>9610</v>
       </c>
       <c r="D22" t="n">
-        <v>10975</v>
+        <v>9880</v>
       </c>
       <c r="E22" t="n">
         <v>13500</v>
@@ -956,10 +956,10 @@
         <v>11431571</v>
       </c>
       <c r="C23" t="n">
-        <v>9195</v>
+        <v>9880</v>
       </c>
       <c r="D23" t="n">
-        <v>11110</v>
+        <v>10150</v>
       </c>
       <c r="E23" t="n">
         <v>13500</v>
@@ -979,10 +979,10 @@
         <v>11431580</v>
       </c>
       <c r="C24" t="n">
-        <v>9330</v>
+        <v>10150</v>
       </c>
       <c r="D24" t="n">
-        <v>11245</v>
+        <v>10420</v>
       </c>
       <c r="E24" t="n">
         <v>13500</v>
@@ -1002,10 +1002,10 @@
         <v>11431581</v>
       </c>
       <c r="C25" t="n">
-        <v>9465</v>
+        <v>10420</v>
       </c>
       <c r="D25" t="n">
-        <v>11380</v>
+        <v>10690</v>
       </c>
       <c r="E25" t="n">
         <v>13500</v>
@@ -1025,10 +1025,10 @@
         <v>11431582</v>
       </c>
       <c r="C26" t="n">
-        <v>9600</v>
+        <v>10690</v>
       </c>
       <c r="D26" t="n">
-        <v>11515</v>
+        <v>10960</v>
       </c>
       <c r="E26" t="n">
         <v>13500</v>
@@ -1048,10 +1048,10 @@
         <v>11432340</v>
       </c>
       <c r="C27" t="n">
-        <v>290</v>
+        <v>580</v>
       </c>
       <c r="D27" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="E27" t="n">
         <v>1350</v>
@@ -1074,7 +1074,7 @@
         <v>14660</v>
       </c>
       <c r="D28" t="n">
-        <v>15065</v>
+        <v>14930</v>
       </c>
       <c r="E28" t="n">
         <v>18000</v>
@@ -1094,7 +1094,7 @@
         <v>11433756</v>
       </c>
       <c r="C29" t="n">
-        <v>14795</v>
+        <v>14930</v>
       </c>
       <c r="D29" t="n">
         <v>15200</v>
@@ -1117,10 +1117,10 @@
         <v>11433934</v>
       </c>
       <c r="C30" t="n">
-        <v>12345</v>
+        <v>12770</v>
       </c>
       <c r="D30" t="n">
-        <v>13850</v>
+        <v>13040</v>
       </c>
       <c r="E30" t="n">
         <v>15750</v>
@@ -1143,13 +1143,13 @@
         <v>5250</v>
       </c>
       <c r="D31" t="n">
-        <v>5655</v>
+        <v>5520</v>
       </c>
       <c r="E31" t="n">
         <v>4500</v>
       </c>
       <c r="F31" t="n">
-        <v>1155</v>
+        <v>1020</v>
       </c>
       <c r="G31" t="n">
         <v>270</v>
@@ -1163,16 +1163,16 @@
         <v>11435021</v>
       </c>
       <c r="C32" t="n">
-        <v>2995</v>
+        <v>3900</v>
       </c>
       <c r="D32" t="n">
-        <v>4470</v>
+        <v>4170</v>
       </c>
       <c r="E32" t="n">
         <v>3150</v>
       </c>
       <c r="F32" t="n">
-        <v>1320</v>
+        <v>1020</v>
       </c>
       <c r="G32" t="n">
         <v>270</v>
@@ -1186,16 +1186,16 @@
         <v>11435028</v>
       </c>
       <c r="C33" t="n">
-        <v>3130</v>
+        <v>4170</v>
       </c>
       <c r="D33" t="n">
-        <v>4605</v>
+        <v>4440</v>
       </c>
       <c r="E33" t="n">
         <v>3150</v>
       </c>
       <c r="F33" t="n">
-        <v>1455</v>
+        <v>1290</v>
       </c>
       <c r="G33" t="n">
         <v>270</v>
@@ -1209,16 +1209,16 @@
         <v>11435036</v>
       </c>
       <c r="C34" t="n">
-        <v>3265</v>
+        <v>4440</v>
       </c>
       <c r="D34" t="n">
-        <v>4740</v>
+        <v>4710</v>
       </c>
       <c r="E34" t="n">
         <v>3150</v>
       </c>
       <c r="F34" t="n">
-        <v>1590</v>
+        <v>1560</v>
       </c>
       <c r="G34" t="n">
         <v>270</v>
@@ -1232,16 +1232,16 @@
         <v>11435037</v>
       </c>
       <c r="C35" t="n">
-        <v>3400</v>
+        <v>4710</v>
       </c>
       <c r="D35" t="n">
-        <v>4875</v>
+        <v>4980</v>
       </c>
       <c r="E35" t="n">
         <v>3150</v>
       </c>
       <c r="F35" t="n">
-        <v>1725</v>
+        <v>1830</v>
       </c>
       <c r="G35" t="n">
         <v>270</v>
@@ -1255,7 +1255,7 @@
         <v>11436167</v>
       </c>
       <c r="C36" t="n">
-        <v>1530</v>
+        <v>1820</v>
       </c>
       <c r="D36" t="n">
         <v>2090</v>
@@ -1278,16 +1278,16 @@
         <v>11482922</v>
       </c>
       <c r="C37" t="n">
-        <v>3535</v>
+        <v>4980</v>
       </c>
       <c r="D37" t="n">
-        <v>5010</v>
+        <v>5250</v>
       </c>
       <c r="E37" t="n">
         <v>3150</v>
       </c>
       <c r="F37" t="n">
-        <v>1860</v>
+        <v>2100</v>
       </c>
       <c r="G37" t="n">
         <v>270</v>
@@ -1324,7 +1324,7 @@
         <v>11487179</v>
       </c>
       <c r="C39" t="n">
-        <v>5385</v>
+        <v>5520</v>
       </c>
       <c r="D39" t="n">
         <v>5790</v>
@@ -1347,10 +1347,10 @@
         <v>11487778</v>
       </c>
       <c r="C40" t="n">
-        <v>425</v>
+        <v>850</v>
       </c>
       <c r="D40" t="n">
-        <v>575</v>
+        <v>1000</v>
       </c>
       <c r="E40" t="n">
         <v>1350</v>
@@ -1370,10 +1370,10 @@
         <v>11490088</v>
       </c>
       <c r="C41" t="n">
-        <v>9735</v>
+        <v>10960</v>
       </c>
       <c r="D41" t="n">
-        <v>11650</v>
+        <v>11230</v>
       </c>
       <c r="E41" t="n">
         <v>13500</v>
@@ -1393,10 +1393,10 @@
         <v>11490665</v>
       </c>
       <c r="C42" t="n">
-        <v>9870</v>
+        <v>11230</v>
       </c>
       <c r="D42" t="n">
-        <v>11785</v>
+        <v>11500</v>
       </c>
       <c r="E42" t="n">
         <v>13500</v>
@@ -1416,10 +1416,10 @@
         <v>11491190</v>
       </c>
       <c r="C43" t="n">
-        <v>10140</v>
+        <v>11770</v>
       </c>
       <c r="D43" t="n">
-        <v>10290</v>
+        <v>11920</v>
       </c>
       <c r="E43" t="n">
         <v>13500</v>
@@ -1439,10 +1439,10 @@
         <v>11493568</v>
       </c>
       <c r="C44" t="n">
-        <v>12480</v>
+        <v>13040</v>
       </c>
       <c r="D44" t="n">
-        <v>13985</v>
+        <v>13310</v>
       </c>
       <c r="E44" t="n">
         <v>15750</v>
@@ -1462,10 +1462,10 @@
         <v>11493569</v>
       </c>
       <c r="C45" t="n">
-        <v>12615</v>
+        <v>13310</v>
       </c>
       <c r="D45" t="n">
-        <v>14120</v>
+        <v>13580</v>
       </c>
       <c r="E45" t="n">
         <v>15750</v>
@@ -1485,10 +1485,10 @@
         <v>11493570</v>
       </c>
       <c r="C46" t="n">
-        <v>12750</v>
+        <v>13580</v>
       </c>
       <c r="D46" t="n">
-        <v>14255</v>
+        <v>13850</v>
       </c>
       <c r="E46" t="n">
         <v>15750</v>
@@ -1508,10 +1508,10 @@
         <v>11494472</v>
       </c>
       <c r="C47" t="n">
-        <v>12885</v>
+        <v>13850</v>
       </c>
       <c r="D47" t="n">
-        <v>14390</v>
+        <v>14120</v>
       </c>
       <c r="E47" t="n">
         <v>15750</v>
@@ -1531,10 +1531,10 @@
         <v>11494474</v>
       </c>
       <c r="C48" t="n">
-        <v>13020</v>
+        <v>14120</v>
       </c>
       <c r="D48" t="n">
-        <v>14525</v>
+        <v>14390</v>
       </c>
       <c r="E48" t="n">
         <v>15750</v>
@@ -1554,7 +1554,7 @@
         <v>11494475</v>
       </c>
       <c r="C49" t="n">
-        <v>13155</v>
+        <v>14390</v>
       </c>
       <c r="D49" t="n">
         <v>14660</v>
@@ -1577,10 +1577,10 @@
         <v>11496918</v>
       </c>
       <c r="C50" t="n">
-        <v>6125</v>
+        <v>6260</v>
       </c>
       <c r="D50" t="n">
-        <v>7475</v>
+        <v>6530</v>
       </c>
       <c r="E50" t="n">
         <v>11250</v>
@@ -1600,10 +1600,10 @@
         <v>11496919</v>
       </c>
       <c r="C51" t="n">
-        <v>6260</v>
+        <v>6530</v>
       </c>
       <c r="D51" t="n">
-        <v>7610</v>
+        <v>6800</v>
       </c>
       <c r="E51" t="n">
         <v>11250</v>
@@ -1623,10 +1623,10 @@
         <v>11496921</v>
       </c>
       <c r="C52" t="n">
-        <v>6395</v>
+        <v>6800</v>
       </c>
       <c r="D52" t="n">
-        <v>7745</v>
+        <v>7070</v>
       </c>
       <c r="E52" t="n">
         <v>11250</v>
@@ -1646,10 +1646,10 @@
         <v>11496922</v>
       </c>
       <c r="C53" t="n">
-        <v>6530</v>
+        <v>7070</v>
       </c>
       <c r="D53" t="n">
-        <v>7880</v>
+        <v>7340</v>
       </c>
       <c r="E53" t="n">
         <v>11250</v>
@@ -1669,10 +1669,10 @@
         <v>11496928</v>
       </c>
       <c r="C54" t="n">
-        <v>6665</v>
+        <v>7340</v>
       </c>
       <c r="D54" t="n">
-        <v>8015</v>
+        <v>7610</v>
       </c>
       <c r="E54" t="n">
         <v>11250</v>
@@ -1692,10 +1692,10 @@
         <v>11496929</v>
       </c>
       <c r="C55" t="n">
-        <v>6800</v>
+        <v>7610</v>
       </c>
       <c r="D55" t="n">
-        <v>8150</v>
+        <v>7880</v>
       </c>
       <c r="E55" t="n">
         <v>11250</v>
@@ -1715,10 +1715,10 @@
         <v>11496930</v>
       </c>
       <c r="C56" t="n">
-        <v>6935</v>
+        <v>7880</v>
       </c>
       <c r="D56" t="n">
-        <v>8285</v>
+        <v>8150</v>
       </c>
       <c r="E56" t="n">
         <v>11250</v>
@@ -1761,7 +1761,7 @@
         <v>11497711</v>
       </c>
       <c r="C58" t="n">
-        <v>7070</v>
+        <v>8150</v>
       </c>
       <c r="D58" t="n">
         <v>8420</v>
@@ -1784,10 +1784,10 @@
         <v>11498416</v>
       </c>
       <c r="C59" t="n">
-        <v>10005</v>
+        <v>11500</v>
       </c>
       <c r="D59" t="n">
-        <v>11920</v>
+        <v>11770</v>
       </c>
       <c r="E59" t="n">
         <v>13500</v>
